--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_9.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_9.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9736708143027637</v>
+        <v>0.8468386552050107</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7711515733296983</v>
+        <v>0.6277449105580912</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7976758544196684</v>
+        <v>0.7337132677688998</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9708565610745834</v>
+        <v>0.6628042046047402</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1095959383706119</v>
+        <v>0.3630218914234914</v>
       </c>
       <c r="G2" t="n">
-        <v>1.53031048289442</v>
+        <v>2.489271497175121</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7237017373128398</v>
+        <v>0.9524922009987729</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1149739998242389</v>
+        <v>0.3903005860698938</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5000496658643029</v>
+        <v>1.280066927359222</v>
       </c>
       <c r="K2" t="n">
-        <v>0.331052772787983</v>
+        <v>0.6025129802946085</v>
       </c>
       <c r="L2" t="n">
-        <v>2.685067884623123</v>
+        <v>0.7914398709174614</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3362665230280312</v>
+        <v>0.6120019574422341</v>
       </c>
       <c r="N2" t="n">
-        <v>134.4219099276344</v>
+        <v>36.02658427916782</v>
       </c>
       <c r="O2" t="n">
-        <v>275.7570824708508</v>
+        <v>72.99116786739364</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9737105670089881</v>
+        <v>0.8472536946963195</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7708364746657451</v>
+        <v>0.6262877971100251</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7989943586741595</v>
+        <v>0.7340741894274273</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9732943475607791</v>
+        <v>0.6766400070439303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1094304666696818</v>
+        <v>0.3620381678778928</v>
       </c>
       <c r="G3" t="n">
-        <v>1.53241754911117</v>
+        <v>2.499015221511729</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7189855240457942</v>
+        <v>0.95120120515366</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1053566700453923</v>
+        <v>0.3742857902909809</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5146319092807019</v>
+        <v>1.253409649466922</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3308027609765097</v>
+        <v>0.6016960760034029</v>
       </c>
       <c r="L3" t="n">
-        <v>2.682523711424764</v>
+        <v>0.7920050310758393</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3360125737804474</v>
+        <v>0.6111721877250466</v>
       </c>
       <c r="N3" t="n">
-        <v>134.4249318780222</v>
+        <v>36.03201127317518</v>
       </c>
       <c r="O3" t="n">
-        <v>275.7601044212386</v>
+        <v>72.99659486140099</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9739287977351722</v>
+        <v>0.8476379292140996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7707954734282254</v>
+        <v>0.6245760580179591</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7999282380299171</v>
+        <v>0.7343089949515152</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9765224792367481</v>
+        <v>0.6912947758789235</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1085220754458713</v>
+        <v>0.3611274580536782</v>
       </c>
       <c r="G4" t="n">
-        <v>1.532691724575258</v>
+        <v>2.510461628702208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7156450917396857</v>
+        <v>0.9503613194088039</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09262134352145991</v>
+        <v>0.3573230495239676</v>
       </c>
       <c r="J4" t="n">
-        <v>0.495957295298893</v>
+        <v>1.220928232436294</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3294268893789201</v>
+        <v>0.6009388139017801</v>
       </c>
       <c r="L4" t="n">
-        <v>2.668556944948982</v>
+        <v>0.7925282440362208</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3346150335805628</v>
+        <v>0.6104029995023075</v>
       </c>
       <c r="N4" t="n">
-        <v>134.4416033327325</v>
+        <v>36.03704862712564</v>
       </c>
       <c r="O4" t="n">
-        <v>275.7767758759489</v>
+        <v>73.00163221535146</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9738451092728366</v>
+        <v>0.8477792573482117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7703753859699329</v>
+        <v>0.622496652885795</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8009403995881408</v>
+        <v>0.7342932660022176</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9784114812468102</v>
+        <v>0.7060078351335042</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1088704309045599</v>
+        <v>0.3607924831510654</v>
       </c>
       <c r="G5" t="n">
-        <v>1.535500851343184</v>
+        <v>2.52436662039577</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7120246485344186</v>
+        <v>0.9504175809484249</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08516902750176535</v>
+        <v>0.3402928382094625</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5098919576259897</v>
+        <v>1.189906050976369</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3299551952986343</v>
+        <v>0.6006600395823459</v>
       </c>
       <c r="L5" t="n">
-        <v>2.673913006538456</v>
+        <v>0.7927206908571394</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3351516597904003</v>
+        <v>0.6101198347660144</v>
       </c>
       <c r="N5" t="n">
-        <v>134.435193622247</v>
+        <v>36.03890464969841</v>
       </c>
       <c r="O5" t="n">
-        <v>275.7703661654634</v>
+        <v>73.00348823792423</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9736340471272551</v>
+        <v>0.8478290636233853</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7699572870532618</v>
+        <v>0.6221962456722911</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8015846125706345</v>
+        <v>0.7343005707214187</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9796613951719427</v>
+        <v>0.7082988567494196</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1097489827202338</v>
+        <v>0.3606744326844645</v>
       </c>
       <c r="G6" t="n">
-        <v>1.538296680724133</v>
+        <v>2.526375444815718</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7097203360496533</v>
+        <v>0.9503914523913944</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08023798268662594</v>
+        <v>0.3376410047892313</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5263377159065323</v>
+        <v>1.183201715325337</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3312838401133291</v>
+        <v>0.600561764254489</v>
       </c>
       <c r="L6" t="n">
-        <v>2.687420983855674</v>
+        <v>0.792788512168014</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3365012294327689</v>
+        <v>0.6100200116999831</v>
       </c>
       <c r="N6" t="n">
-        <v>134.4191189922675</v>
+        <v>36.03955915215757</v>
       </c>
       <c r="O6" t="n">
-        <v>275.7542915354839</v>
+        <v>73.0041427403834</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9734581807364886</v>
+        <v>0.8490302023051837</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7695003640730562</v>
+        <v>0.6205275319291481</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8022800723029999</v>
+        <v>0.734576366679097</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9811395472011067</v>
+        <v>0.7279625048018293</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1104810312668748</v>
+        <v>0.3578275026270666</v>
       </c>
       <c r="G7" t="n">
-        <v>1.541352126796705</v>
+        <v>2.537534141299837</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7072327169120549</v>
+        <v>0.9494049462423474</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07440651401279402</v>
+        <v>0.314880539018502</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5362342479984825</v>
+        <v>1.075038222394578</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3323868698773687</v>
+        <v>0.5981868459161123</v>
       </c>
       <c r="L7" t="n">
-        <v>2.69867643286473</v>
+        <v>0.7944241052666331</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3376216308129669</v>
+        <v>0.6076076907718242</v>
       </c>
       <c r="N7" t="n">
-        <v>134.4058228710066</v>
+        <v>36.05540848987813</v>
       </c>
       <c r="O7" t="n">
-        <v>275.7409954142229</v>
+        <v>73.01999207810394</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9728142711982952</v>
+        <v>0.84896896838886</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7683231439405646</v>
+        <v>0.6186062043732353</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8033406104513593</v>
+        <v>0.7335653145187588</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9827309920229907</v>
+        <v>0.7477238696815418</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1131613219099501</v>
+        <v>0.3579726388045584</v>
       </c>
       <c r="G8" t="n">
-        <v>1.549224203243277</v>
+        <v>2.550382067513125</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7034392334489081</v>
+        <v>0.9530214211957045</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06812809309137008</v>
+        <v>0.292006967048093</v>
       </c>
       <c r="J8" t="n">
-        <v>0.567676179971456</v>
+        <v>0.9734146309385698</v>
       </c>
       <c r="K8" t="n">
-        <v>0.336394592569426</v>
+        <v>0.5983081470317435</v>
       </c>
       <c r="L8" t="n">
-        <v>2.739886643309106</v>
+        <v>0.7943407229124902</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3416924711311713</v>
+        <v>0.60773090225877</v>
       </c>
       <c r="N8" t="n">
-        <v>134.3578817016788</v>
+        <v>36.05459744684485</v>
       </c>
       <c r="O8" t="n">
-        <v>275.6930542448953</v>
+        <v>73.01918103507067</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9727350357077309</v>
+        <v>0.8489381446267886</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7679072833450304</v>
+        <v>0.6182080554684752</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8040093707909979</v>
+        <v>0.7334239147211374</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9847718249913786</v>
+        <v>0.7503430242077018</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1134911417547607</v>
+        <v>0.3580456970584078</v>
       </c>
       <c r="G9" t="n">
-        <v>1.552005064960475</v>
+        <v>2.553044491072562</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7010471164909733</v>
+        <v>0.9535272000729651</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06007678761746141</v>
+        <v>0.2889753232360177</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5576515898314469</v>
+        <v>0.9587868008625144</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3368844635105049</v>
+        <v>0.5983691979525749</v>
       </c>
       <c r="L9" t="n">
-        <v>2.744957714705222</v>
+        <v>0.7942987501300951</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3421900570498809</v>
+        <v>0.6077929146705761</v>
       </c>
       <c r="N9" t="n">
-        <v>134.35206098264</v>
+        <v>36.05418931062574</v>
       </c>
       <c r="O9" t="n">
-        <v>275.6872335258564</v>
+        <v>73.01877289885157</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9724525756734792</v>
+        <v>0.8436771454012717</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7673909071570577</v>
+        <v>0.6150594048683655</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8040802349433436</v>
+        <v>0.7302958816234963</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9858082076816774</v>
+        <v>0.7392520986544611</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1146668891881219</v>
+        <v>0.3705152786762834</v>
       </c>
       <c r="G10" t="n">
-        <v>1.555458074907142</v>
+        <v>2.5740995321337</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7007936395269727</v>
+        <v>0.9647159930894468</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05598814648086806</v>
+        <v>0.3018129528939237</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5542596433598711</v>
+        <v>1.191936640190802</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3386249978783638</v>
+        <v>0.6086996621292666</v>
       </c>
       <c r="L10" t="n">
-        <v>2.763035156897331</v>
+        <v>0.7871348362910934</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3439580030941375</v>
+        <v>0.6182860733313751</v>
       </c>
       <c r="N10" t="n">
-        <v>134.3314479393693</v>
+        <v>35.98572119420718</v>
       </c>
       <c r="O10" t="n">
-        <v>275.6666204825857</v>
+        <v>72.95030478243301</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9720126901041974</v>
+        <v>0.8427942244726092</v>
       </c>
       <c r="C11" t="n">
-        <v>0.766806127971952</v>
+        <v>0.6120652009516714</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8041051147758068</v>
+        <v>0.7289619418852338</v>
       </c>
       <c r="E11" t="n">
-        <v>0.986153787681557</v>
+        <v>0.7522039431772058</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1164979246138085</v>
+        <v>0.3726079713588231</v>
       </c>
       <c r="G11" t="n">
-        <v>1.559368496010605</v>
+        <v>2.594121787511674</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7007046458088673</v>
+        <v>0.969487418186942</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05462479622741637</v>
+        <v>0.2868213291045824</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5649233069583811</v>
+        <v>1.158023866052661</v>
       </c>
       <c r="K11" t="n">
-        <v>0.34131792307731</v>
+        <v>0.6104162279615633</v>
       </c>
       <c r="L11" t="n">
-        <v>2.791187833331364</v>
+        <v>0.7859325609839785</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3466933391730295</v>
+        <v>0.620029673359594</v>
       </c>
       <c r="N11" t="n">
-        <v>134.2997636412176</v>
+        <v>35.97445685433163</v>
       </c>
       <c r="O11" t="n">
-        <v>275.634936184434</v>
+        <v>72.93904044255746</v>
       </c>
     </row>
   </sheetData>
